--- a/flash_calculate.xlsx
+++ b/flash_calculate.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\___Customer\C_CORSAIR\M480BSP_HSUSBD_HID_MultiDevice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="22056" windowHeight="8652"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="22056" windowHeight="8652" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADC" sheetId="4" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId4"/>
+    <sheet name="Flash" sheetId="4" r:id="rId1"/>
+    <sheet name="Flash IAP" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>target MCU flash (KB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCU flash page size (KB)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -43,75 +45,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LAST page (checksum) start address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>checksum address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>data flash start address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>APROM remain size (KB)</t>
+    <t>LDROM in APROM start address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total boot loader size (KB)</t>
+    <t>MCU flash page size (Bytes)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total data flash size (KB)</t>
+    <t>APROM size last 4 bytes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/* for ICP tool , data flash config setting*/</t>
+    <t>HEX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/* for generateChecksum , generateCRCbinary.cmd*/</t>
+    <t xml:space="preserve">checksum address </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/* \AP\KEIL\obj\APROM_application.bin file size*/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* for \ISP_HID_20\KEIL\hid_20_iap.sct*/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* for verify_application_chksum in \ISP_HID_20\main.c */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* for APROM_APPLICATION_SIZE in \ISP_HID_20\isp_user.h*/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* generateChecksum , generateCRCbinary.cmd*/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boot loader in APROM start address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boot loader in APROM length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* for ICP tool , APROM address , to programming boot loader */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/* for ICP tool , APROM address , to programming application */</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*LDROM not use , in IAP mode , put boot loader at first of ARPOM address</t>
+    <t>bootloader in APROM start address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -119,15 +77,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>application in APROM length</t>
+    <t>size (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*sreord use binary to generate checksum , and binary don’t have addreess </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checksum address *</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,14 +123,8 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +146,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -227,14 +219,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,251 +247,149 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>191417</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117631</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7392317" y="0"/>
+          <a:ext cx="2776094" cy="5165469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文字方塊 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11780520" y="1470660"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>211075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>195980</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="群組 8"/>
+        <xdr:cNvPr id="4" name="群組 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="114300" y="4777740"/>
-          <a:ext cx="7000495" cy="2550560"/>
-          <a:chOff x="114300" y="4777740"/>
-          <a:chExt cx="7000495" cy="2550560"/>
+          <a:off x="10195560" y="3954780"/>
+          <a:ext cx="2796540" cy="411480"/>
+          <a:chOff x="10180320" y="3489960"/>
+          <a:chExt cx="2796540" cy="411480"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="圓角矩形 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2758440" y="4777740"/>
-            <a:ext cx="1800000" cy="541020"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>LDROM_Bootloader.bin</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="圖片 2"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="114300" y="4777740"/>
-            <a:ext cx="2621507" cy="2423370"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="圓角矩形 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2743200" y="7002780"/>
-            <a:ext cx="1800000" cy="180000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>APROM_Bootloader.bin</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="文字方塊 4"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4869180" y="7063740"/>
-            <a:ext cx="2245615" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>boot loader in APROM start address</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="直線單箭頭接點 6"/>
+          <xdr:cNvPr id="8" name="直線單箭頭接點 7"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4564380" y="7178040"/>
-            <a:ext cx="281940" cy="0"/>
+          <a:xfrm flipH="1">
+            <a:off x="10180320" y="3787140"/>
+            <a:ext cx="525780" cy="114300"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="28575">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="直線單箭頭接點 11"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="2766060" y="6065520"/>
-            <a:ext cx="289560" cy="175260"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:tailEnd type="arrow"/>
           </a:ln>
@@ -512,22 +411,25 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="文字方塊 13"/>
+          <xdr:cNvPr id="10" name="文字方塊 9"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3116580" y="5890260"/>
-            <a:ext cx="1520994" cy="264560"/>
+            <a:off x="10767060" y="3489960"/>
+            <a:ext cx="2209800" cy="281940"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -541,82 +443,67 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>data flash start address</a:t>
+              <a:t>LDROM in APROM start address</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="圓角矩形 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2743200" y="6294120"/>
-            <a:ext cx="1080000" cy="180000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>checksum</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="群組 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10187940" y="3642360"/>
+          <a:ext cx="2811780" cy="464820"/>
+          <a:chOff x="10157460" y="3108960"/>
+          <a:chExt cx="2811780" cy="464820"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線單箭頭接點 15"/>
+          <xdr:cNvPr id="7" name="直線單箭頭接點 6"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3832860" y="6347460"/>
-            <a:ext cx="304800" cy="121920"/>
+          <a:xfrm flipH="1">
+            <a:off x="10157460" y="3375660"/>
+            <a:ext cx="571500" cy="198120"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="28575">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:tailEnd type="arrow"/>
           </a:ln>
@@ -638,22 +525,25 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="文字方塊 17"/>
+          <xdr:cNvPr id="12" name="文字方塊 11"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4198620" y="6179820"/>
-            <a:ext cx="1231684" cy="264560"/>
+            <a:off x="10759440" y="3108960"/>
+            <a:ext cx="2209800" cy="281940"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -667,88 +557,134 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>checksum address</a:t>
+              <a:t>data flash start address</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文字方塊 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751820" y="2034540"/>
+          <a:ext cx="2209800" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>LDROM</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="群組 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10172700" y="4274820"/>
+          <a:ext cx="2819400" cy="723900"/>
+          <a:chOff x="10165080" y="3802380"/>
+          <a:chExt cx="2819400" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="圓角矩形 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2750820" y="6499860"/>
-            <a:ext cx="1800000" cy="480060"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>application</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
-              <a:t> code</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="文字方塊 19"/>
+          <xdr:cNvPr id="13" name="文字方塊 12"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4876800" y="6560820"/>
-            <a:ext cx="2144113" cy="264560"/>
+            <a:off x="10774680" y="3802380"/>
+            <a:ext cx="2209800" cy="723900"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -762,18 +698,17 @@
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-              <a:t>application in APROM start address</a:t>
+              <a:t>application code</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
           </a:p>
@@ -781,20 +716,20 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="直線單箭頭接點 21"/>
+          <xdr:cNvPr id="14" name="直線單箭頭接點 13"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="4564380" y="6720840"/>
-            <a:ext cx="259080" cy="251460"/>
+          <a:xfrm flipH="1">
+            <a:off x="10165080" y="4495800"/>
+            <a:ext cx="556260" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="28575">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:tailEnd type="arrow"/>
           </a:ln>
@@ -814,23 +749,200 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="文字方塊 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12184380" y="3810000"/>
+            <a:ext cx="792480" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>checksum</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190761</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7231380" y="53340"/>
+          <a:ext cx="3010161" cy="4846740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文字方塊 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12214860" y="1470660"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="群組 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10157460" y="4122420"/>
+          <a:ext cx="2827020" cy="297180"/>
+          <a:chOff x="10149840" y="3489960"/>
+          <a:chExt cx="2827020" cy="297180"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="直線接點 7"/>
+          <xdr:cNvPr id="4" name="直線單箭頭接點 3"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="2788920" y="4846320"/>
-            <a:ext cx="1706880" cy="434340"/>
+            <a:off x="10149840" y="3787140"/>
+            <a:ext cx="556260" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="28575">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:tailEnd type="arrow"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -848,23 +960,103 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="文字方塊 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10767060" y="3489960"/>
+            <a:ext cx="2209800" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>LDROM in APROM start address</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="群組 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10172700" y="3055620"/>
+          <a:ext cx="2796540" cy="281940"/>
+          <a:chOff x="10172700" y="3703320"/>
+          <a:chExt cx="2796540" cy="281940"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="直線接點 16"/>
+          <xdr:cNvPr id="3" name="直線單箭頭接點 2"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="2819400" y="4815840"/>
-            <a:ext cx="1706880" cy="464820"/>
+          <a:xfrm flipH="1">
+            <a:off x="10172700" y="3970020"/>
+            <a:ext cx="556260" cy="0"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="straightConnector1">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln w="38100">
+          <a:ln w="28575">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
+            <a:tailEnd type="arrow"/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
@@ -882,6 +1074,217 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="文字方塊 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10759440" y="3703320"/>
+            <a:ext cx="2209800" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>data flash start address</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="群組 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10157460" y="3360420"/>
+          <a:ext cx="2819400" cy="723900"/>
+          <a:chOff x="10165080" y="3802380"/>
+          <a:chExt cx="2819400" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文字方塊 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10774680" y="3802380"/>
+            <a:ext cx="2209800" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>application code</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直線單箭頭接點 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="10165080" y="4495800"/>
+            <a:ext cx="556260" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="文字方塊 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12184380" y="3810000"/>
+            <a:ext cx="792480" cy="198120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>checksum</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -931,7 +1334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,7 +1369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1175,215 +1578,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="str">
         <f xml:space="preserve"> DEC2HEX(B2*1024)</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B3)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX(B3*1024)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B5*1024)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <f xml:space="preserve"> B2 - B7 - B6</f>
-        <v>488</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B6 - B5)*1024)</f>
+        <v>1D000</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B5</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(D8*1024)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D10" s="2">
+        <f xml:space="preserve"> B2 - B6 - B5</f>
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(D10*1024)</f>
+        <v>1D000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B6 - B5)*1024 - 4)</f>
+        <v>1CFFC</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="D8" s="2">
-        <f xml:space="preserve"> B6</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="D10" s="2">
-        <f>B7</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <f xml:space="preserve"> 0</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX(D8*1024)</f>
-        <v>5000</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>DEC2HEX((B6)*1024)</f>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>DEC2HEX((B2-B6-B7)*1024)</f>
-        <v>7A000</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="str">
-        <f>DEC2HEX((B2 - B7)*1024)</f>
-        <v>7F000</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX((B2 - B7- B3)*1024)</f>
-        <v>7E000</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX((B2 - B7)*1024 - 4)</f>
-        <v>7EFFC</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="5" t="s">
-        <v>16</v>
+      <c r="C14" s="2" t="str">
+        <f>DEC2HEX((B2 - B6)*1024)</f>
+        <v>1F000</v>
       </c>
     </row>
   </sheetData>
@@ -1396,14 +1727,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>512</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B2*1024)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B3)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B5*1024)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B5</f>
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(D8*1024)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>C5</f>
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2">
+        <f xml:space="preserve"> B2 - B6 - B5</f>
+        <v>448</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(D10*1024)</f>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B6)*1024 - 4)</f>
+        <v>7FFFC</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>DEC2HEX((B2 - B6)*1024)</f>
+        <v>80000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1431,4 +1903,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>